--- a/data/mydata.xlsx
+++ b/data/mydata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wolf_office\_R\Projects\blogdown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wolf_office_web\bookdown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,9 +89,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,29 +378,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/mydata.xlsx
+++ b/data/mydata.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,6 +39,10 @@
   </si>
   <si>
     <t>income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +382,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -392,16 +392,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -409,13 +409,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -443,13 +443,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -477,13 +477,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -494,13 +494,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -511,13 +511,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -528,13 +528,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -545,13 +545,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -562,13 +562,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -579,13 +579,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -596,13 +596,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -613,13 +613,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -647,13 +647,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -664,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -681,13 +681,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -698,13 +698,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -732,13 +732,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -766,13 +766,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -783,13 +783,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -800,13 +800,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -817,13 +817,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -834,13 +834,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -851,13 +851,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -868,13 +868,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -885,13 +885,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -902,13 +902,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -919,13 +919,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -936,13 +936,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -953,13 +953,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -970,13 +970,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -987,13 +987,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1004,13 +1004,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1021,13 +1021,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -1038,13 +1038,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -1055,13 +1055,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -1089,13 +1089,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -1106,13 +1106,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -1123,13 +1123,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1140,13 +1140,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1157,13 +1157,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1174,13 +1174,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -1191,13 +1191,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -1208,13 +1208,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -1225,13 +1225,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -1242,13 +1242,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1259,13 +1259,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -1276,13 +1276,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1293,13 +1293,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1310,13 +1310,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1327,13 +1327,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1344,13 +1344,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -1361,13 +1361,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1378,13 +1378,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -1395,13 +1395,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -1412,13 +1412,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -1429,13 +1429,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1446,13 +1446,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1463,13 +1463,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -1480,13 +1480,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1497,13 +1497,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -1514,13 +1514,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -1531,13 +1531,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -1548,13 +1548,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -1565,13 +1565,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -1582,13 +1582,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -1599,13 +1599,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -1633,13 +1633,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -1650,13 +1650,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -1667,13 +1667,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -1684,13 +1684,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -1701,13 +1701,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -1718,13 +1718,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -1735,13 +1735,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -1752,13 +1752,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -1769,13 +1769,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -1786,13 +1786,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -1803,13 +1803,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -1820,13 +1820,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -1837,13 +1837,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -1854,13 +1854,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -1871,13 +1871,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -1888,13 +1888,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -1905,13 +1905,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -1922,13 +1922,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -1939,13 +1939,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -1956,13 +1956,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -1973,13 +1973,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -1990,13 +1990,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -2007,13 +2007,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -2024,13 +2024,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -2041,13 +2041,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2058,13 +2058,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -2075,13 +2075,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -2092,13 +2092,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>5</v>
